--- a/all_stores_data.xlsx
+++ b/all_stores_data.xlsx
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SToK Pumpkin Creamed Cold Brew Coffee - 48 fl oz</t>
+          <t>Starbucks Fall Blend Medium Roast Coffee - Single Serve Pods - 22ct</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$5.49</t>
+          <t>$18.99</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Starbucks Fall Blend Medium Roast Coffee - Single Serve Pods - 22ct</t>
+          <t>Starbucks Pumpkin Spice Medium Roast Coffee - Keurig K-Cup Pods - 22ct</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Starbucks Pumpkin Spice Medium Roast Coffee - Keurig K-Cup Pods - 22ct</t>
+          <t>Naturally Flavored Caramel Apple Light Roast Coffee Ground Coffee 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$18.99</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Naturally Flavored Caramel Apple Light Roast Coffee Ground Coffee 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Hot Buttery Rum Medium Roast Coffee - 16ct Single Serve Pod - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hot Buttery Rum Medium Roast Coffee - 16ct Single Serve Pod - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Starbucks Medium Roast Ground Coffee &amp;#8212; Breakfast Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Starbucks Medium Roast Ground Coffee &amp;#8212; Breakfast Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
+          <t>Starbucks Blonde Light Roast Ground Coffee &amp;#8212; Veranda Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Starbucks Blonde Light Roast Ground Coffee &amp;#8212; Veranda Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
+          <t>Donut Shop Blend Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Donut Shop Blend Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>House Blend Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>House Blend Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Starbucks Dark Roast Ground Coffee &amp;#8212; Caff&amp;#232; Verona &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Starbucks Dark Roast Ground Coffee &amp;#8212; Caff&amp;#232; Verona &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
+          <t>Breakfast Blend Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Breakfast Blend Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Naturally Flavored Caramel Macchiato Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Naturally Flavored Caramel Macchiato Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Naturally Flavored Cinnamon Vanilla Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Naturally Flavored Cinnamon Vanilla Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Caf&amp;#233; Bustelo Espresso Vacuum-Packed Dark Roast Ground Coffee - 10oz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$3.99</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,17 +832,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Caf&amp;#233; Bustelo Espresso Vacuum-Packed Dark Roast Ground Coffee - 10oz</t>
+          <t>Starbucks Fall Blend Medium Roast Ground Coffee - 10oz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$3.99</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,17 +854,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Starbucks Fall Blend Medium Roast Ground Coffee - 10oz</t>
+          <t>The Original Donut Shop Regular Keurig K-Cup Coffee Pods - Medium Roast - 24ct</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$15.99</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -876,17 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Original Donut Shop Regular Keurig K-Cup Coffee Pods - Medium Roast - 24ct</t>
+          <t>Starbucks Dark Roast Ground Coffee &amp;#8212; French Roast &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$15.99</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,17 +898,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Starbucks Dark Roast Ground Coffee &amp;#8212; French Roast &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
+          <t>Peet&amp;#39;s Coffee Big Bang Medium Roast Ground Coffee - 10.5oz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$10.89</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,17 +920,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Peet&amp;#39;s Coffee Big Bang Medium Roast Ground Coffee - 10.5oz</t>
+          <t>Naturally Flavored Toasted Hazelnut Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$10.89</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Naturally Flavored Toasted Hazelnut Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Naturally Flavored Salted Caramel Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Naturally Flavored Salted Caramel Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Naturally Flavored Toasted Coconut Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Naturally Flavored Toasted Coconut Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Naturally Flavored Vanilla Bean Brulee Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,17 +1008,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Naturally Flavored Vanilla Bean Brulee Light Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Signature Coffee Organic Sumatra Mandheling Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$7.39</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Signature Coffee Organic Sumatra Mandheling Medium Roast Ground Coffee - 12oz - Good &amp;#38; Gather&amp;#8482;</t>
+          <t>Starbucks Medium Roast Ground Coffee &amp;#8212; House Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$7.39</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Starbucks Medium Roast Ground Coffee &amp;#8212; House Blend &amp;#8212; 100% Arabica &amp;#8212; 1 bag (12 oz.)</t>
+          <t>Starbucks Light Roast Ground Coffee&amp;#8212;Caramel Flavored Coffee&amp;#8212;Naturally Flavored&amp;#8212;100% Arabica 1 bag (11 oz)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5904,15 +5904,15 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>illy Coffee Illy Blend Arabica Whole Bean Medium Roast Coffee Beans - 8.8 Oz</t>
+          <t>illy Coffee Arabica K-Cup Pods Medium Roast Coffee - 10-0.41 Oz</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>10.99</v>
+        <v>8.99</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5944,15 +5944,15 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>illy Coffee Arabica K-Cup Pods Dark Roast Coffee - 10-0.41 Oz</t>
+          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Coffee - 8.8 Oz</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>8.99</v>
+        <v>10.99</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6064,15 +6064,15 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>illy Coffee Arabica K-Cup Pods Medium Roast Coffee - 10-0.41 Oz</t>
+          <t>illy Coffee Illy Blend Arabica Whole Bean Medium Roast Coffee Beans - 8.8 Oz</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>8.99</v>
+        <v>10.99</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6104,15 +6104,15 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Coffee - 8.8 Oz</t>
+          <t>illy Coffee Arabica K-Cup Pods Dark Roast Coffee - 10-0.41 Oz</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>10.99</v>
+        <v>8.99</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Beverage</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Chobani Dairy Creamer Hazelnut - 24 Fl. Oz.</t>
+          <t>Chobani Plain Dairy Creamer - 24 Fl. Oz.</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -7244,7 +7244,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Chobani Vanilla Dairy Creamer - 24 Fl. Oz.</t>
+          <t>Chobani Oat Plain - 52 Oz</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -7284,7 +7284,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Chobani Oat Zero Sugar - 52 FZ</t>
+          <t>Chobani Dairy Creamer Hazelnut - 24 Fl. Oz.</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -7364,7 +7364,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Chobani Oat Plain - 52 Oz</t>
+          <t>Chobani Oat Extra Creamy - 52 Fl. Oz.</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -7404,7 +7404,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Chobani Oat Extra Creamy - 52 Fl. Oz.</t>
+          <t>Chobani Oat Vanilla - 52 Fl. Oz.</t>
         </is>
       </c>
       <c r="B341" t="n">

--- a/all_stores_data.xlsx
+++ b/all_stores_data.xlsx
@@ -5904,11 +5904,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>illy Coffee Arabica K-Cup Pods Medium Roast Coffee - 10-0.41 Oz</t>
+          <t>illy Coffee Illy Blend Arabica Whole Bean Medium Roast Coffee Beans - 8.8 Oz</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>8.99</v>
+        <v>10.99</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5944,11 +5944,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Coffee - 8.8 Oz</t>
+          <t>illy Coffee Arabica K-Cup Pods Dark Roast Coffee - 10-0.41 Oz</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>10.99</v>
+        <v>8.99</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Espresso - 8.8 Oz</t>
+          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Coffee - 8.8 Oz</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -6064,7 +6064,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>illy Coffee Illy Blend Arabica Whole Bean Medium Roast Coffee Beans - 8.8 Oz</t>
+          <t>illy Coffee Illy Blend Arabica Ground Medium Roast Espresso - 8.8 Oz</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -6104,7 +6104,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>illy Coffee Arabica K-Cup Pods Dark Roast Coffee - 10-0.41 Oz</t>
+          <t>illy Coffee Arabica K-Cup Pods Medium Roast Coffee - 10-0.41 Oz</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -7244,7 +7244,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Chobani Oat Plain - 52 Oz</t>
+          <t>Chobani Oat Zero Sugar - 52 FZ</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -7284,7 +7284,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Chobani Dairy Creamer Hazelnut - 24 Fl. Oz.</t>
+          <t>Chobani Oat Plain - 52 Oz</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -7364,7 +7364,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Chobani Oat Extra Creamy - 52 Fl. Oz.</t>
+          <t>Chobani Dairy Creamer Hazelnut - 24 Fl. Oz.</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -7404,7 +7404,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Chobani Oat Vanilla - 52 Fl. Oz.</t>
+          <t>Chobani Vanilla Dairy Creamer - 24 Fl. Oz.</t>
         </is>
       </c>
       <c r="B341" t="n">
